--- a/medicine/Enfance/Journée_de_l'enfance/Journée_de_l'enfance.xlsx
+++ b/medicine/Enfance/Journée_de_l'enfance/Journée_de_l'enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_de_l%27enfance</t>
+          <t>Journée_de_l'enfance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La Journée de l'enfance est un terme générique pour désigner divers événements célébrés à plusieurs dates dans différents pays du monde.
 Les deux dates principales concernées par ces événements sont :
-le 20 novembre, dit Journée mondiale de l'enfance, date recommandée par les Nations unies[1], depuis le 20 novembre 1989, date de l'adoption par les Nations unies de la Convention Internationale des Droits de l'Enfant (CIDE) avec le soutien de l'UNICEF, qui reconnaît les droits fondamentaux des enfants.
+le 20 novembre, dit Journée mondiale de l'enfance, date recommandée par les Nations unies, depuis le 20 novembre 1989, date de l'adoption par les Nations unies de la Convention Internationale des Droits de l'Enfant (CIDE) avec le soutien de l'UNICEF, qui reconnaît les droits fondamentaux des enfants.
 le 1er juin, dit Journée internationale de l'enfance, date instaurée par l'ancien bloc soviétique.</t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_de_l%27enfance</t>
+          <t>Journée_de_l'enfance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
